--- a/config/draftconfig.xlsx
+++ b/config/draftconfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhamad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhamad\Desktop\TubesAlstruk\IF2110_TB_01_M\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91E14061-1627-4C90-B5C5-B3F297D82090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213A5E05-05CF-4693-810A-FB2ED933C7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="840" windowWidth="21030" windowHeight="11385" xr2:uid="{29136670-9818-4110-B91B-E23740317C65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29136670-9818-4110-B91B-E23740317C65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="96">
   <si>
     <t>Ayam Mentah</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>Kentang</t>
-  </si>
-  <si>
-    <t>2 0 0</t>
   </si>
   <si>
     <t>Kentang Potong</t>
@@ -678,7 +675,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +746,7 @@
         <v>50</v>
       </c>
       <c r="Q3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S3" t="s">
         <v>12</v>
@@ -769,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
@@ -781,13 +778,13 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>
       </c>
       <c r="S4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="U4" t="s">
         <v>1</v>
@@ -804,7 +801,7 @@
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
         <v>2</v>
@@ -947,7 +944,7 @@
         <v>49</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1147,34 +1144,34 @@
         <v>32</v>
       </c>
       <c r="K18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M18" t="s">
         <v>42</v>
       </c>
       <c r="O18" t="s">
+        <v>54</v>
+      </c>
+      <c r="S18" t="s">
         <v>55</v>
       </c>
-      <c r="S18" t="s">
-        <v>56</v>
-      </c>
       <c r="U18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W18" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y18" t="s">
         <v>64</v>
       </c>
-      <c r="Y18" t="s">
-        <v>65</v>
-      </c>
       <c r="AA18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -1367,49 +1364,49 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
         <v>60</v>
       </c>
-      <c r="C23" t="s">
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" t="s">
         <v>82</v>
       </c>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M23" t="s">
-        <v>68</v>
-      </c>
-      <c r="O23" t="s">
-        <v>83</v>
-      </c>
       <c r="S23" t="s">
+        <v>89</v>
+      </c>
+      <c r="U23" t="s">
+        <v>87</v>
+      </c>
+      <c r="W23" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y23" t="s">
         <v>90</v>
       </c>
-      <c r="U23" t="s">
-        <v>88</v>
-      </c>
-      <c r="W23" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="AA23" t="s">
         <v>91</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AC23" t="s">
         <v>92</v>
       </c>
-      <c r="AC23" t="s">
-        <v>93</v>
-      </c>
       <c r="AE23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -1455,13 +1452,13 @@
         <v>44</v>
       </c>
       <c r="K26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -1570,28 +1567,28 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" t="s">
+      <c r="G31" t="s">
         <v>77</v>
       </c>
-      <c r="E31" t="s">
+      <c r="I31" t="s">
         <v>70</v>
       </c>
-      <c r="G31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>71</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="s">
         <v>72</v>
       </c>
-      <c r="M31" t="s">
+      <c r="O31" t="s">
         <v>73</v>
-      </c>
-      <c r="O31" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1637,7 +1634,7 @@
         <v>46</v>
       </c>
       <c r="M34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1734,25 +1731,25 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" t="s">
+      <c r="I39" t="s">
         <v>75</v>
       </c>
-      <c r="E39" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" t="s">
-        <v>81</v>
-      </c>
-      <c r="I39" t="s">
-        <v>76</v>
-      </c>
       <c r="K39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/config/draftconfig.xlsx
+++ b/config/draftconfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhamad\Desktop\TubesAlstruk\IF2110_TB_01_M\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213A5E05-05CF-4693-810A-FB2ED933C7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A87B9E5-AFCD-4E38-92D9-77EFD5B0826E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29136670-9818-4110-B91B-E23740317C65}"/>
   </bookViews>
@@ -672,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BBA4BE-2648-4DD6-B373-06A2020045D1}">
-  <dimension ref="A1:AE39"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="S22" sqref="S22:AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,41 +860,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-    </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
@@ -1027,13 +992,13 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -1042,40 +1007,16 @@
         <v>5</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>23</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>6</v>
-      </c>
-      <c r="M15">
-        <v>7</v>
-      </c>
-      <c r="O15">
-        <v>8</v>
-      </c>
       <c r="V15" t="s">
         <v>4</v>
       </c>
@@ -1316,96 +1257,49 @@
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="C22">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
         <v>60</v>
       </c>
-      <c r="E22">
-        <v>30</v>
-      </c>
-      <c r="G22">
-        <v>20</v>
-      </c>
-      <c r="I22">
-        <v>20</v>
-      </c>
-      <c r="K22">
-        <v>25</v>
-      </c>
-      <c r="M22">
-        <v>30</v>
-      </c>
-      <c r="O22">
-        <v>25</v>
-      </c>
-      <c r="S22">
-        <v>10</v>
-      </c>
-      <c r="U22">
-        <v>10</v>
-      </c>
-      <c r="W22">
-        <v>10</v>
-      </c>
-      <c r="Y22">
-        <v>10</v>
-      </c>
-      <c r="AA22">
-        <v>10</v>
-      </c>
-      <c r="AC22">
-        <v>5</v>
-      </c>
-      <c r="AE22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="G22" t="s">
         <v>61</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I22" t="s">
         <v>65</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K22" t="s">
         <v>66</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M22" t="s">
         <v>67</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O22" t="s">
         <v>82</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S22" t="s">
         <v>89</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U22" t="s">
         <v>87</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W22" t="s">
         <v>88</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Y22" t="s">
         <v>90</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AA22" t="s">
         <v>91</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AC22" t="s">
         <v>92</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AE22" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1540,54 +1434,28 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>15</v>
-      </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="G30">
-        <v>15</v>
-      </c>
-      <c r="I30">
-        <v>20</v>
-      </c>
-      <c r="K30">
-        <v>15</v>
-      </c>
-      <c r="M30">
-        <v>20</v>
-      </c>
-      <c r="O30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A30" t="s">
         <v>68</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C30" t="s">
         <v>76</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E30" t="s">
         <v>69</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G30" t="s">
         <v>77</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I30" t="s">
         <v>70</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K30" t="s">
         <v>71</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M30" t="s">
         <v>72</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O30" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1707,48 +1575,25 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>45</v>
-      </c>
-      <c r="C38">
-        <v>10</v>
-      </c>
-      <c r="E38">
-        <v>10</v>
-      </c>
-      <c r="G38">
-        <v>45</v>
-      </c>
-      <c r="I38">
-        <v>45</v>
-      </c>
-      <c r="K38">
-        <v>45</v>
-      </c>
-      <c r="M38">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A38" t="s">
         <v>79</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C38" t="s">
         <v>74</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E38" t="s">
         <v>78</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G38" t="s">
         <v>80</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I38" t="s">
         <v>75</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K38" t="s">
         <v>95</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M38" t="s">
         <v>86</v>
       </c>
     </row>
